--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/166.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/166.xlsx
@@ -479,13 +479,13 @@
         <v>-1.202384795393662</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.4090770061746</v>
+        <v>-13.0081351405957</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.9817290424259213</v>
+        <v>-2.002103849001526</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.91957562082039</v>
+        <v>-10.03904960984622</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-1.549207714064383</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.67482456925596</v>
+        <v>-13.36548954666062</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8336550972859995</v>
+        <v>-1.831380219945418</v>
       </c>
       <c r="G3" t="n">
-        <v>-11.82414582540705</v>
+        <v>-9.95315101090166</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-1.827433523254066</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.11676834398126</v>
+        <v>-14.03504300628933</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6924677034408255</v>
+        <v>-1.653861685714454</v>
       </c>
       <c r="G4" t="n">
-        <v>-11.44420719694016</v>
+        <v>-9.677832974443001</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-1.959020857761849</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.70635401785271</v>
+        <v>-14.74903174176286</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6042386745904336</v>
+        <v>-1.653390362812152</v>
       </c>
       <c r="G5" t="n">
-        <v>-11.3876484486639</v>
+        <v>-9.759987174774833</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-1.932028662274311</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.26790907134003</v>
+        <v>-15.45307032707668</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4267201403594698</v>
+        <v>-1.409336745539536</v>
       </c>
       <c r="G6" t="n">
-        <v>-11.01892992373237</v>
+        <v>-9.294228501180427</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-1.72349442710875</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.93712213109486</v>
+        <v>-16.22640647133176</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3430079559894734</v>
+        <v>-1.338834694736841</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.86598564193533</v>
+        <v>-9.201456443243957</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-1.33417232512747</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.58583264459954</v>
+        <v>-16.92785278068291</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1787388322343364</v>
+        <v>-1.199781346254869</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.46168223787998</v>
+        <v>-8.69797884516254</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.769206279263651</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.34413882519231</v>
+        <v>-17.78586993971827</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2302046747051615</v>
+        <v>-1.20585617477343</v>
       </c>
       <c r="G9" t="n">
-        <v>-10.30820117166643</v>
+        <v>-8.469007560763592</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.04726046806588392</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.87495315160725</v>
+        <v>-18.45220269284792</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.03320479384570939</v>
+        <v>-1.122693867122786</v>
       </c>
       <c r="G10" t="n">
-        <v>-10.01557511085101</v>
+        <v>-8.153103385495584</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.7996267550571018</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.5019697193032</v>
+        <v>-19.11431972446253</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1905557540222308</v>
+        <v>-0.9206403573664275</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.663968225733614</v>
+        <v>-7.813515234386893</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>1.732324476737438</v>
       </c>
       <c r="E12" t="n">
-        <v>-20.09624243759199</v>
+        <v>-19.73471158692056</v>
       </c>
       <c r="F12" t="n">
-        <v>0.007643191020475944</v>
+        <v>-1.16080556069505</v>
       </c>
       <c r="G12" t="n">
-        <v>-9.143012403358492</v>
+        <v>-7.296434733652922</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>2.699105492913132</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.84716455938203</v>
+        <v>-20.62743644078934</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2109797464553235</v>
+        <v>-0.8745816359692352</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.509567514967259</v>
+        <v>-6.660175000150718</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>3.639062902154102</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.6482040164502</v>
+        <v>-21.31754481587956</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4398332001286952</v>
+        <v>-0.7111111426874435</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.212503163488496</v>
+        <v>-6.405320233033679</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>4.492002797158743</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.51240074242685</v>
+        <v>-22.18840552400265</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6212401483036516</v>
+        <v>-0.5895883877105421</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.518414728334387</v>
+        <v>-5.821743926166581</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>5.200297792729406</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.57426505670789</v>
+        <v>-23.17466178937272</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8973568152356544</v>
+        <v>-0.3207117642500139</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.152118279428575</v>
+        <v>-5.328098647519299</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>5.722059513261272</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.23515141185538</v>
+        <v>-23.90950656327312</v>
       </c>
       <c r="F17" t="n">
-        <v>1.030636458164426</v>
+        <v>-0.1953922414490119</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.028121079214588</v>
+        <v>-5.075613587216613</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>6.035445772133905</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.13126717216016</v>
+        <v>-24.85770350428229</v>
       </c>
       <c r="F18" t="n">
-        <v>1.36411050384603</v>
+        <v>0.0116887125985693</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.483782403964144</v>
+        <v>-4.564175869007426</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>6.138519376431431</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.91904412644966</v>
+        <v>-25.72954613511851</v>
       </c>
       <c r="F19" t="n">
-        <v>1.465575850869407</v>
+        <v>0.06538024655248791</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.402256634168715</v>
+        <v>-4.344513211928946</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>6.049645727079574</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.68723499568793</v>
+        <v>-26.50864289262395</v>
       </c>
       <c r="F20" t="n">
-        <v>1.610324351087531</v>
+        <v>0.2272796634932725</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.094430409754052</v>
+        <v>-4.019496793883095</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>5.7971598444571</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.33082641878151</v>
+        <v>-27.11651851356529</v>
       </c>
       <c r="F21" t="n">
-        <v>1.873532007417592</v>
+        <v>0.4428182451766087</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.850337515572911</v>
+        <v>-3.681335703784153</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>5.416489544245232</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.90779111271353</v>
+        <v>-27.75407438504882</v>
       </c>
       <c r="F22" t="n">
-        <v>1.999951283657299</v>
+        <v>0.4933807187513548</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.144505284769775</v>
+        <v>-3.166048848539499</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>4.944865661726</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.31303716257348</v>
+        <v>-28.18478496393593</v>
       </c>
       <c r="F23" t="n">
-        <v>2.189004136691823</v>
+        <v>0.6046522006031847</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.174211719917651</v>
+        <v>-3.044447539745547</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>4.418219343258047</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.60565013108605</v>
+        <v>-28.52594419138563</v>
       </c>
       <c r="F24" t="n">
-        <v>2.066433997487584</v>
+        <v>0.5347523957312091</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.856579360674536</v>
+        <v>-2.872506326525158</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.872881107578452</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.90475688180813</v>
+        <v>-28.78523724916601</v>
       </c>
       <c r="F25" t="n">
-        <v>2.360775149975269</v>
+        <v>0.8585774142184618</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.561452670016346</v>
+        <v>-2.713199185547035</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.336507958725069</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.93808988484316</v>
+        <v>-28.74745286316479</v>
       </c>
       <c r="F26" t="n">
-        <v>2.25436091247772</v>
+        <v>0.7862162564122418</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.665706677545011</v>
+        <v>-2.884917829619114</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.836773433708467</v>
       </c>
       <c r="E27" t="n">
-        <v>-29.07968314007643</v>
+        <v>-28.90236099038809</v>
       </c>
       <c r="F27" t="n">
-        <v>2.220949355625635</v>
+        <v>0.6671548543695849</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.341449613063982</v>
+        <v>-2.650696531780635</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.392896916842106</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.88149185965838</v>
+        <v>-28.78607515654788</v>
       </c>
       <c r="F28" t="n">
-        <v>2.414715437683181</v>
+        <v>0.9424990754339259</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.382179767204591</v>
+        <v>-2.790011726319443</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.016355648346933</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.87638586155011</v>
+        <v>-28.83738389138461</v>
       </c>
       <c r="F29" t="n">
-        <v>2.280021826047503</v>
+        <v>0.808761201905694</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.297564213938515</v>
+        <v>-2.747527203598041</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.71809366777201</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.69359112927393</v>
+        <v>-28.60638330004519</v>
       </c>
       <c r="F30" t="n">
-        <v>2.345404786439083</v>
+        <v>0.8261477800795063</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.27803049809866</v>
+        <v>-2.716432984348942</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.497074717826656</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.27415302313355</v>
+        <v>-28.24612240274941</v>
       </c>
       <c r="F31" t="n">
-        <v>2.220923171019951</v>
+        <v>0.745342086940373</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.54684166004498</v>
+        <v>-3.123760710360723</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.351849014733074</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.13305727540827</v>
+        <v>-28.21412481460424</v>
       </c>
       <c r="F32" t="n">
-        <v>2.20741191448729</v>
+        <v>0.7609088350191853</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.778091005138387</v>
+        <v>-3.357707069839527</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.275521861585924</v>
       </c>
       <c r="E33" t="n">
-        <v>-27.55580455081373</v>
+        <v>-27.67765461336167</v>
       </c>
       <c r="F33" t="n">
-        <v>2.135482802674847</v>
+        <v>0.7063793936833962</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.037960124243808</v>
+        <v>-3.727695548146705</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.254439597203818</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.99874015720112</v>
+        <v>-27.05371473683353</v>
       </c>
       <c r="F34" t="n">
-        <v>2.213434373794484</v>
+        <v>0.8011676662574929</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.912889355196799</v>
+        <v>-3.676007136527571</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.277573335411597</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.76997834964764</v>
+        <v>-26.75073266447031</v>
       </c>
       <c r="F35" t="n">
-        <v>2.013619647824061</v>
+        <v>0.592018128360919</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.224080301441786</v>
+        <v>-3.964666229581947</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.328407979889177</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.88835576858865</v>
+        <v>-25.87557768101513</v>
       </c>
       <c r="F36" t="n">
-        <v>1.937239153045431</v>
+        <v>0.5471115296137986</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.456926907481884</v>
+        <v>-4.087589860962913</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.391001403416488</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.40882399240475</v>
+        <v>-25.23609724101386</v>
       </c>
       <c r="F37" t="n">
-        <v>1.81079369220004</v>
+        <v>0.4718046036681902</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.706021061348564</v>
+        <v>-4.310119732363731</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.452686625913571</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.94419125685473</v>
+        <v>-24.84825086163056</v>
       </c>
       <c r="F38" t="n">
-        <v>1.805373478823566</v>
+        <v>0.4478587817706733</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.87133756933104</v>
+        <v>-4.46560392091207</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.500762531976717</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.48962650219001</v>
+        <v>-24.23138082863696</v>
       </c>
       <c r="F39" t="n">
-        <v>1.689244752617456</v>
+        <v>0.4294902808837316</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.977188837806395</v>
+        <v>-4.639404241135983</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.530062624009197</v>
       </c>
       <c r="E40" t="n">
-        <v>-24.0215766755983</v>
+        <v>-23.76685283150968</v>
       </c>
       <c r="F40" t="n">
-        <v>1.698042780127095</v>
+        <v>0.3873592503390571</v>
       </c>
       <c r="G40" t="n">
-        <v>-6.086797597197325</v>
+        <v>-4.769057316177596</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.538605324659327</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.21001100704538</v>
+        <v>-22.97852600050082</v>
       </c>
       <c r="F41" t="n">
-        <v>1.760781095344647</v>
+        <v>0.5558310033063881</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.197204987061601</v>
+        <v>-4.895489684720145</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.527600934988913</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.812410862045</v>
+        <v>-22.50800172867203</v>
       </c>
       <c r="F42" t="n">
-        <v>1.883482157577304</v>
+        <v>0.6888488001783249</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.24505735394811</v>
+        <v>-5.052217642038448</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.504077007657717</v>
       </c>
       <c r="E43" t="n">
-        <v>-22.00064880894946</v>
+        <v>-21.67585496005192</v>
       </c>
       <c r="F43" t="n">
-        <v>2.064653444301109</v>
+        <v>0.8600830290452602</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.24194138587178</v>
+        <v>-5.064328022167045</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.475335254170301</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.74748294889901</v>
+        <v>-21.29435834754686</v>
       </c>
       <c r="F44" t="n">
-        <v>2.029251857417082</v>
+        <v>0.8326677468946858</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.416972382562815</v>
+        <v>-5.292657783726748</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.450240366911487</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.20646971857036</v>
+        <v>-20.74623599677516</v>
       </c>
       <c r="F45" t="n">
-        <v>2.098222108787295</v>
+        <v>0.8861628963059786</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.509692071287919</v>
+        <v>-5.447434987921633</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.437462648013384</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.73578833910747</v>
+        <v>-20.19986801458425</v>
       </c>
       <c r="F46" t="n">
-        <v>2.247448176577288</v>
+        <v>1.049803589524713</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.455791060488533</v>
+        <v>-5.368697878631492</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.441359248490326</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.2073829964154</v>
+        <v>-19.56866190997895</v>
       </c>
       <c r="F47" t="n">
-        <v>2.119929146898876</v>
+        <v>0.9326798483026313</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.826486523149165</v>
+        <v>-5.770382822118489</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>1.464753017702533</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.76587126768387</v>
+        <v>-19.00509064185401</v>
       </c>
       <c r="F48" t="n">
-        <v>2.161615039146932</v>
+        <v>0.9353899549908686</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.870332645366106</v>
+        <v>-5.769361622496835</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>1.504670240778825</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.0841550587152</v>
+        <v>-18.34409954828379</v>
       </c>
       <c r="F49" t="n">
-        <v>2.168841990315565</v>
+        <v>1.010107727308599</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.315876803372885</v>
+        <v>-6.218794194447607</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>1.554871408786061</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.56026656050353</v>
+        <v>-17.63766507154993</v>
       </c>
       <c r="F50" t="n">
-        <v>2.147030213781249</v>
+        <v>0.9947635483780963</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.301069408858893</v>
+        <v>-6.220561655331241</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>1.607404028974984</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.7324140672155</v>
+        <v>-16.75684112096429</v>
       </c>
       <c r="F51" t="n">
-        <v>2.171250974038442</v>
+        <v>1.032534842076476</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.69076180294287</v>
+        <v>-6.523713927631408</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>1.650471460375673</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.42121002866768</v>
+        <v>-16.31404634655427</v>
       </c>
       <c r="F52" t="n">
-        <v>2.06481055193521</v>
+        <v>0.947605073542199</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.609707356049744</v>
+        <v>-6.442083419413246</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>1.674910568832934</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.89105031739482</v>
+        <v>-15.66045240408962</v>
       </c>
       <c r="F53" t="n">
-        <v>2.15962500911499</v>
+        <v>1.109150998306257</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.71261285638571</v>
+        <v>-6.570008310479751</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>1.672514522682123</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.54623833745228</v>
+        <v>-15.29080432565633</v>
       </c>
       <c r="F54" t="n">
-        <v>1.902177966035288</v>
+        <v>0.8599782906225264</v>
       </c>
       <c r="G54" t="n">
-        <v>-8.117217383406413</v>
+        <v>-6.910224892124845</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>1.638219206362948</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.97775745576169</v>
+        <v>-14.61056754690877</v>
       </c>
       <c r="F55" t="n">
-        <v>1.984397627881328</v>
+        <v>0.913434163125294</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.238609215354897</v>
+        <v>-7.197718770226308</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>1.57214233395612</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.5847658013616</v>
+        <v>-14.23688703920022</v>
       </c>
       <c r="F56" t="n">
-        <v>1.809720123367019</v>
+        <v>0.8325237315634268</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.442089786121004</v>
+        <v>-7.475760005676044</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>1.476282734989907</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.94126602438793</v>
+        <v>-13.50896809350309</v>
       </c>
       <c r="F57" t="n">
-        <v>1.714565266313354</v>
+        <v>0.7965460833543636</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.741628582836855</v>
+        <v>-7.893744866200991</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>1.357318189164533</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.73537646989894</v>
+        <v>-13.21639440189904</v>
       </c>
       <c r="F58" t="n">
-        <v>1.593094880547819</v>
+        <v>0.641821248370845</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.785108120574227</v>
+        <v>-7.845918683920165</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>1.223258297190231</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.26049246122385</v>
+        <v>-12.6612938537127</v>
       </c>
       <c r="F59" t="n">
-        <v>1.650098767120695</v>
+        <v>0.6932739985388284</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.94161350874422</v>
+        <v>-8.092682407881018</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>1.082064231585827</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.13373278511026</v>
+        <v>-12.51456841576547</v>
       </c>
       <c r="F60" t="n">
-        <v>1.50351734450473</v>
+        <v>0.6286111148035434</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.860179385068683</v>
+        <v>-7.954480059083758</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.9435336434493242</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.86691165319588</v>
+        <v>-12.06233409100657</v>
       </c>
       <c r="F61" t="n">
-        <v>1.422502174520129</v>
+        <v>0.5495074210338344</v>
       </c>
       <c r="G61" t="n">
-        <v>-9.057048342899719</v>
+        <v>-8.360917508502302</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.8152763439741938</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.55797258303967</v>
+        <v>-11.66318905427087</v>
       </c>
       <c r="F62" t="n">
-        <v>1.413232824108187</v>
+        <v>0.58929492936984</v>
       </c>
       <c r="G62" t="n">
-        <v>-9.370569719050533</v>
+        <v>-8.530449737999813</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.7047440170814994</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.12305937494038</v>
+        <v>-11.23479581298675</v>
       </c>
       <c r="F63" t="n">
-        <v>1.357904752299052</v>
+        <v>0.5963516806015303</v>
       </c>
       <c r="G63" t="n">
-        <v>-9.360946876461863</v>
+        <v>-8.504972116669814</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.6189607710724552</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.87107182214567</v>
+        <v>-10.91487230074633</v>
       </c>
       <c r="F64" t="n">
-        <v>1.299447620110745</v>
+        <v>0.512443111688908</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.568184938143546</v>
+        <v>-8.649223109379951</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.5611003311959771</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.63677197049014</v>
+        <v>-10.61630233444077</v>
       </c>
       <c r="F65" t="n">
-        <v>1.290885254052257</v>
+        <v>0.557991233275273</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.73636866044836</v>
+        <v>-8.826990397364908</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.5344695906157387</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.42940298578004</v>
+        <v>-10.37408163956599</v>
       </c>
       <c r="F66" t="n">
-        <v>1.097223910417445</v>
+        <v>0.3365872999188434</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.769806401906127</v>
+        <v>-8.783641782655954</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.5396737627624335</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.24452657735203</v>
+        <v>-10.17913725025269</v>
       </c>
       <c r="F67" t="n">
-        <v>1.068276828834388</v>
+        <v>0.3350816850920449</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.812592047592888</v>
+        <v>-8.864761691063288</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.5748237900337403</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.12960234300736</v>
+        <v>-9.977921647878205</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9636431445233135</v>
+        <v>0.3049824808589167</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.752576931366416</v>
+        <v>-8.730225187061711</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.6377647332695981</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.96558197300621</v>
+        <v>-9.842586513403283</v>
       </c>
       <c r="F69" t="n">
-        <v>0.766080294641667</v>
+        <v>0.0224898624429933</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.707500132682354</v>
+        <v>-8.711869778477611</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.7220696580054209</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.84798690888183</v>
+        <v>-9.731864908270806</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9048063355525965</v>
+        <v>0.166793224364498</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.648231277717858</v>
+        <v>-8.594497283501536</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.8213348640690251</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.67185615875209</v>
+        <v>-9.581984225338726</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8050560802014856</v>
+        <v>0.07775247273791903</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.2937179013696</v>
+        <v>-8.32229521511921</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.9275221007897519</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.60859415142087</v>
+        <v>-9.57906464180502</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8478810027967716</v>
+        <v>0.03281968938511517</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.148013663044031</v>
+        <v>-8.093769069016881</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>1.030780093610679</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.59954737015724</v>
+        <v>-9.598886388307394</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6691841613100524</v>
+        <v>-0.1001457382754548</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.119708104300219</v>
+        <v>-8.000146011395698</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>1.12334036018917</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.72125341737392</v>
+        <v>-9.745428534014833</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7655173256194728</v>
+        <v>0.001502900987706418</v>
       </c>
       <c r="G74" t="n">
-        <v>-8.894337203182747</v>
+        <v>-7.810373081704879</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>1.197686386021461</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.77135766034921</v>
+        <v>-9.815145046647025</v>
       </c>
       <c r="F75" t="n">
-        <v>0.6146154430657382</v>
+        <v>-0.2553026192527504</v>
       </c>
       <c r="G75" t="n">
-        <v>-8.724543127628401</v>
+        <v>-7.610872571002657</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>1.248968400165788</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.13682929417599</v>
+        <v>-10.20210114943708</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7246038792390789</v>
+        <v>-0.1551595948163877</v>
       </c>
       <c r="G76" t="n">
-        <v>-8.471429636789312</v>
+        <v>-7.345007177195725</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>1.274583618899012</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.53274053210979</v>
+        <v>-10.52682953682041</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6301821911445505</v>
+        <v>-0.2565463880227144</v>
       </c>
       <c r="G77" t="n">
-        <v>-8.281813814732592</v>
+        <v>-7.274753880147023</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>1.273304679020076</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.0892419567002</v>
+        <v>-11.07666697926438</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6107008445160621</v>
+        <v>-0.3178314576248341</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.050250254370983</v>
+        <v>-7.006060548926279</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>1.246328450082063</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.50625798681486</v>
+        <v>-11.52886202711476</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4921893191927577</v>
+        <v>-0.3868933551149391</v>
       </c>
       <c r="G79" t="n">
-        <v>-8.012740806729438</v>
+        <v>-6.964989994911785</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>1.195674912249251</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.02238274944138</v>
+        <v>-12.00146797509539</v>
       </c>
       <c r="F80" t="n">
-        <v>0.7551220371631424</v>
+        <v>-0.3149380586968126</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.731164649512436</v>
+        <v>-6.579919183730937</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>1.124282193870759</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.87699590973789</v>
+        <v>-12.85896144201708</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5712668283567832</v>
+        <v>-0.4033241951813054</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.698486261619488</v>
+        <v>-6.591165471871981</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>1.034975406858497</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.54270023233114</v>
+        <v>-13.52909096297082</v>
       </c>
       <c r="F82" t="n">
-        <v>0.6689877767674266</v>
+        <v>-0.3843272637579608</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.546523902535573</v>
+        <v>-6.389373808172457</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.9293572029031915</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.30272150459618</v>
+        <v>-14.2365990085377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5378814561103817</v>
+        <v>-0.5771507000109023</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.316125557126878</v>
+        <v>-6.079217153851966</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.8094483916829928</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.38015256695602</v>
+        <v>-15.39105208851542</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5630317698693375</v>
+        <v>-0.5951788010239591</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.10019420635829</v>
+        <v>-5.925539703095786</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.6754565723406174</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.20316090819261</v>
+        <v>-16.2050529253969</v>
       </c>
       <c r="F85" t="n">
-        <v>0.6158330272300188</v>
+        <v>-0.6069618735815127</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.855472881640746</v>
+        <v>-5.609164204925475</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.5278273725270507</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.22370591470515</v>
+        <v>-17.18999996048279</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5953566655855591</v>
+        <v>-0.7258268910815435</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.553721485744644</v>
+        <v>-5.3117201766643</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.3652119970906541</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.24548159768482</v>
+        <v>-18.23089040561138</v>
       </c>
       <c r="F87" t="n">
-        <v>0.6388492956257732</v>
+        <v>-0.7463032527260032</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.172931857593041</v>
+        <v>-4.833117953982162</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1849950124885379</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.56771253857926</v>
+        <v>-19.5433544885859</v>
       </c>
       <c r="F88" t="n">
-        <v>0.7448053025238622</v>
+        <v>-0.5773339922506865</v>
       </c>
       <c r="G88" t="n">
-        <v>-6.00506235055643</v>
+        <v>-4.645688546500012</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.01454299719474661</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.12843286803859</v>
+        <v>-21.02906901506497</v>
       </c>
       <c r="F89" t="n">
-        <v>0.5745791809757399</v>
+        <v>-0.8037130006869719</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.636029610356696</v>
+        <v>-4.33149946290427</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2376834374921028</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.63780518575266</v>
+        <v>-22.54829983681886</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3942850785423302</v>
+        <v>-0.9817290424259213</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.413093877567785</v>
+        <v>-4.081541217050035</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.4861672839037756</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.0445338491876</v>
+        <v>-24.02136719875283</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3454900658512171</v>
+        <v>-1.017837613663402</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.425282811513433</v>
+        <v>-4.115358635290214</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.7609065192296115</v>
       </c>
       <c r="E92" t="n">
-        <v>-27.75681067634275</v>
+        <v>-25.60293047433618</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1850308022230225</v>
+        <v>-1.180077430478071</v>
       </c>
       <c r="G92" t="n">
-        <v>-5.125181045775387</v>
+        <v>-3.891022026097238</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.060943580301321</v>
       </c>
       <c r="E93" t="n">
-        <v>-29.69887051067302</v>
+        <v>-27.60946990016196</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2017496729519066</v>
+        <v>-1.1423715982939</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.17351782786704</v>
+        <v>-3.850553718013463</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.379287644350376</v>
       </c>
       <c r="E94" t="n">
-        <v>-31.84154370144707</v>
+        <v>-29.72573591610425</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1951904292282019</v>
+        <v>-1.088405125980305</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.223281670968441</v>
+        <v>-3.920951030393423</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.709093835481118</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.00435285399169</v>
+        <v>-31.9096105839212</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1723236038418906</v>
+        <v>-1.489278346691116</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.3595070820366</v>
+        <v>-4.150878052899817</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.038862987761506</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.08024220797009</v>
+        <v>-34.07869094952702</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.294946112257497</v>
+        <v>-1.508733508713921</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.47236273253228</v>
+        <v>-4.382559443987001</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.354358034914688</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.37218074344266</v>
+        <v>-36.35723605919249</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.593031663357916</v>
+        <v>-1.746450451411141</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.676222980080796</v>
+        <v>-4.467921258515055</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.647455393638169</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.82638528033558</v>
+        <v>-38.8198458545098</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.8756290201965733</v>
+        <v>-2.082739342203717</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.921323981580749</v>
+        <v>-4.825877910510687</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.903889335251113</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.1975977095148</v>
+        <v>-41.19255080621297</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.7473244523476578</v>
+        <v>-1.931104290690845</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.302807501782964</v>
+        <v>-5.145133715306178</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.12743984287715</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.73343275462587</v>
+        <v>-43.73190768078847</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.8823977407657456</v>
+        <v>-2.107051748580802</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.484423926803387</v>
+        <v>-5.355972160269334</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.308567436795065</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.20232685530721</v>
+        <v>-46.2063529178747</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.016711675619013</v>
+        <v>-2.323114022377808</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.840469102584128</v>
+        <v>-5.770160252970181</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.468323884660192</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.54012772763434</v>
+        <v>-48.55084395695395</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.110046702577679</v>
+        <v>-2.411185943594099</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.124035289833073</v>
+        <v>-6.068756403881427</v>
       </c>
     </row>
   </sheetData>
